--- a/data/pca/factorExposure/factorExposure_2013-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002108756197631279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00142087295217625</v>
+      </c>
+      <c r="C2">
+        <v>-0.03173590770038252</v>
+      </c>
+      <c r="D2">
+        <v>0.006014008015536554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002839520751883623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006015299015963566</v>
+      </c>
+      <c r="C4">
+        <v>-0.08208405788374949</v>
+      </c>
+      <c r="D4">
+        <v>0.08103907746685236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003886291499758228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01336506158446354</v>
+      </c>
+      <c r="C6">
+        <v>-0.1053173849907181</v>
+      </c>
+      <c r="D6">
+        <v>0.0419950953856263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001367542087954643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004852265809001544</v>
+      </c>
+      <c r="C7">
+        <v>-0.05156293027876643</v>
+      </c>
+      <c r="D7">
+        <v>0.03967925211824551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002826556000625215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005984671113055126</v>
+      </c>
+      <c r="C8">
+        <v>-0.03759803299861315</v>
+      </c>
+      <c r="D8">
+        <v>0.04168768099035267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005881350527979372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003918365633139125</v>
+      </c>
+      <c r="C9">
+        <v>-0.06643269751005265</v>
+      </c>
+      <c r="D9">
+        <v>0.07025703508928624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004392101735527432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006348840201116847</v>
+      </c>
+      <c r="C10">
+        <v>-0.09195234420864043</v>
+      </c>
+      <c r="D10">
+        <v>-0.2162137320358974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005985697190270377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004919398291872886</v>
+      </c>
+      <c r="C11">
+        <v>-0.07770934587827057</v>
+      </c>
+      <c r="D11">
+        <v>0.06541167189674493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00106598860286149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003756808265741896</v>
+      </c>
+      <c r="C12">
+        <v>-0.06215736589426703</v>
+      </c>
+      <c r="D12">
+        <v>0.0463300996715208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002686079688514675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008463824056343043</v>
+      </c>
+      <c r="C13">
+        <v>-0.06770456834242317</v>
+      </c>
+      <c r="D13">
+        <v>0.07779641432998625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003918126417828405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001871473406620304</v>
+      </c>
+      <c r="C14">
+        <v>-0.04702032651571518</v>
+      </c>
+      <c r="D14">
+        <v>0.01630859845999258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003274772593128251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005943206951060376</v>
+      </c>
+      <c r="C15">
+        <v>-0.03704125624114006</v>
+      </c>
+      <c r="D15">
+        <v>0.04662208927737461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003696075761463602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004969309420204551</v>
+      </c>
+      <c r="C16">
+        <v>-0.06340975329600079</v>
+      </c>
+      <c r="D16">
+        <v>0.05059878947907636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001441582028567867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009172991514628592</v>
+      </c>
+      <c r="C20">
+        <v>-0.06434685785560047</v>
+      </c>
+      <c r="D20">
+        <v>0.05746197177141335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00316144255375115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009436682185202352</v>
+      </c>
+      <c r="C21">
+        <v>-0.02454074877754953</v>
+      </c>
+      <c r="D21">
+        <v>0.0377142091441682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01659171562824018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.008010784389798345</v>
+      </c>
+      <c r="C22">
+        <v>-0.08436066866060064</v>
+      </c>
+      <c r="D22">
+        <v>0.1037224383219188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01685466758797019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007767081228753222</v>
+      </c>
+      <c r="C23">
+        <v>-0.08692019876032117</v>
+      </c>
+      <c r="D23">
+        <v>0.1010979643268068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004575065307432516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004440822176103648</v>
+      </c>
+      <c r="C24">
+        <v>-0.0708355227889516</v>
+      </c>
+      <c r="D24">
+        <v>0.05969958629856844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00573429500961779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002884378795231382</v>
+      </c>
+      <c r="C25">
+        <v>-0.07625204713513054</v>
+      </c>
+      <c r="D25">
+        <v>0.06277230285715052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007112773817601046</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003615458034693168</v>
+      </c>
+      <c r="C26">
+        <v>-0.04346451825415594</v>
+      </c>
+      <c r="D26">
+        <v>0.01759598368414467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005653192570802048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0006195482229499303</v>
+      </c>
+      <c r="C28">
+        <v>-0.1419306637332958</v>
+      </c>
+      <c r="D28">
+        <v>-0.2981994118008244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001709783129925756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003507278713554004</v>
+      </c>
+      <c r="C29">
+        <v>-0.05028739436806881</v>
+      </c>
+      <c r="D29">
+        <v>0.02154979936217705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005662635005214833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009083799701736599</v>
+      </c>
+      <c r="C30">
+        <v>-0.1308987229779239</v>
+      </c>
+      <c r="D30">
+        <v>0.1154948044344402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001051832141973023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006117012971361097</v>
+      </c>
+      <c r="C31">
+        <v>-0.04697676059320604</v>
+      </c>
+      <c r="D31">
+        <v>0.03747148131365756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005717571893532121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003656408245418823</v>
+      </c>
+      <c r="C32">
+        <v>-0.04269242130974266</v>
+      </c>
+      <c r="D32">
+        <v>0.01422376044600809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004607551544393636</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007828862818874295</v>
+      </c>
+      <c r="C33">
+        <v>-0.08092783998242131</v>
+      </c>
+      <c r="D33">
+        <v>0.07620432661651177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00603720760500995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003660729898154541</v>
+      </c>
+      <c r="C34">
+        <v>-0.05583014560803035</v>
+      </c>
+      <c r="D34">
+        <v>0.0434216482467121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004292063396733263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005147359465621158</v>
+      </c>
+      <c r="C35">
+        <v>-0.03918448089172776</v>
+      </c>
+      <c r="D35">
+        <v>0.0205383210041063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005548122635276265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001370256428408795</v>
+      </c>
+      <c r="C36">
+        <v>-0.02695860542441668</v>
+      </c>
+      <c r="D36">
+        <v>0.01703583484236196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002237852973287447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009059062110464781</v>
+      </c>
+      <c r="C38">
+        <v>-0.03465436741918453</v>
+      </c>
+      <c r="D38">
+        <v>0.0325150692667199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01578552936526513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001371069049410059</v>
+      </c>
+      <c r="C39">
+        <v>-0.1093001678496527</v>
+      </c>
+      <c r="D39">
+        <v>0.08934920122524133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008476640814900403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002480441561634592</v>
+      </c>
+      <c r="C40">
+        <v>-0.08343515551192279</v>
+      </c>
+      <c r="D40">
+        <v>0.03732952287378861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001126416847430002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007522391706181257</v>
+      </c>
+      <c r="C41">
+        <v>-0.04193658768561288</v>
+      </c>
+      <c r="D41">
+        <v>0.03417507698916423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002161164776876134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002823067697276757</v>
+      </c>
+      <c r="C43">
+        <v>-0.05223949174094756</v>
+      </c>
+      <c r="D43">
+        <v>0.02701741267438929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005312397041746391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003421449688191985</v>
+      </c>
+      <c r="C44">
+        <v>-0.1035692615148902</v>
+      </c>
+      <c r="D44">
+        <v>0.08547655499213984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002384545721705137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00260939344766416</v>
+      </c>
+      <c r="C46">
+        <v>-0.0341480799800307</v>
+      </c>
+      <c r="D46">
+        <v>0.03420813719940852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.00270759873043481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003063432270038309</v>
+      </c>
+      <c r="C47">
+        <v>-0.04142466246287693</v>
+      </c>
+      <c r="D47">
+        <v>0.02990185650688387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003651125921766912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006556197103447679</v>
+      </c>
+      <c r="C48">
+        <v>-0.03252572336270932</v>
+      </c>
+      <c r="D48">
+        <v>0.02273391151242524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01638753999290671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01389690019389051</v>
+      </c>
+      <c r="C49">
+        <v>-0.1626886670351491</v>
+      </c>
+      <c r="D49">
+        <v>0.04881798847457019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003919887410182189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003915891876929345</v>
+      </c>
+      <c r="C50">
+        <v>-0.04310170023895874</v>
+      </c>
+      <c r="D50">
+        <v>0.03868738345297748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002630547302758966</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004135909585277923</v>
+      </c>
+      <c r="C51">
+        <v>-0.0196895246753036</v>
+      </c>
+      <c r="D51">
+        <v>0.03647655148628253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000252663108022174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01981364277792827</v>
+      </c>
+      <c r="C53">
+        <v>-0.1620787480072269</v>
+      </c>
+      <c r="D53">
+        <v>0.06023364867441785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001404796201093123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008512032097028065</v>
+      </c>
+      <c r="C54">
+        <v>-0.05426948308114334</v>
+      </c>
+      <c r="D54">
+        <v>0.04089510702499156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006103435319334216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009471022040058549</v>
+      </c>
+      <c r="C55">
+        <v>-0.1028166052090751</v>
+      </c>
+      <c r="D55">
+        <v>0.05876205333193044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001221961672777637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01861828252916852</v>
+      </c>
+      <c r="C56">
+        <v>-0.1663516404323267</v>
+      </c>
+      <c r="D56">
+        <v>0.06322136480766333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009049958414150789</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01939292474183509</v>
+      </c>
+      <c r="C58">
+        <v>-0.09863456082824834</v>
+      </c>
+      <c r="D58">
+        <v>0.08395651634044313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009555017334970021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009339887337515704</v>
+      </c>
+      <c r="C59">
+        <v>-0.1812940994439773</v>
+      </c>
+      <c r="D59">
+        <v>-0.2617076445846596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009179459402900899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02282605587183549</v>
+      </c>
+      <c r="C60">
+        <v>-0.2226628090809344</v>
+      </c>
+      <c r="D60">
+        <v>0.03135767057928645</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01809114177917305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002193549362192022</v>
+      </c>
+      <c r="C61">
+        <v>-0.09254557344447008</v>
+      </c>
+      <c r="D61">
+        <v>0.06618154456823949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889462616509438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.144930261779137</v>
+      </c>
+      <c r="C62">
+        <v>-0.06727560502318558</v>
+      </c>
+      <c r="D62">
+        <v>0.05759566676614574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003092198354737969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006379816893765756</v>
+      </c>
+      <c r="C63">
+        <v>-0.06036453209773321</v>
+      </c>
+      <c r="D63">
+        <v>0.01930071959484639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006353184335665155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01543253247113729</v>
+      </c>
+      <c r="C64">
+        <v>-0.09586665893269358</v>
+      </c>
+      <c r="D64">
+        <v>0.07277013087073435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0004539434985304683</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01716411554787767</v>
+      </c>
+      <c r="C65">
+        <v>-0.1094670961446128</v>
+      </c>
+      <c r="D65">
+        <v>0.04139785942476181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01236692289423922</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01192412280931069</v>
+      </c>
+      <c r="C66">
+        <v>-0.1448681735603642</v>
+      </c>
+      <c r="D66">
+        <v>0.1284988577155373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001767134127150516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01496564423347494</v>
+      </c>
+      <c r="C67">
+        <v>-0.06308377719376439</v>
+      </c>
+      <c r="D67">
+        <v>0.04423315585314917</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009442422441422309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00174999385895417</v>
+      </c>
+      <c r="C68">
+        <v>-0.1255869620046173</v>
+      </c>
+      <c r="D68">
+        <v>-0.2671877704212184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003461456516639288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005127881141745337</v>
+      </c>
+      <c r="C69">
+        <v>-0.04565344886652782</v>
+      </c>
+      <c r="D69">
+        <v>0.04485219276442593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001259577246779446</v>
+      </c>
+      <c r="C70">
+        <v>-0.001602064008142263</v>
+      </c>
+      <c r="D70">
+        <v>0.001726307746528492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004681194000040863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006660045630970442</v>
+      </c>
+      <c r="C71">
+        <v>-0.129211885507328</v>
+      </c>
+      <c r="D71">
+        <v>-0.2788460850125296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008696765841602522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01509921652372686</v>
+      </c>
+      <c r="C72">
+        <v>-0.1457140174738315</v>
+      </c>
+      <c r="D72">
+        <v>0.04122832987534731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0145778052163009</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03079574499056792</v>
+      </c>
+      <c r="C73">
+        <v>-0.282708708194548</v>
+      </c>
+      <c r="D73">
+        <v>0.0559736358435793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006009364472428285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001699696773959519</v>
+      </c>
+      <c r="C74">
+        <v>-0.1017455243162904</v>
+      </c>
+      <c r="D74">
+        <v>0.04795873027967305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006823226973452559</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01025561597793343</v>
+      </c>
+      <c r="C75">
+        <v>-0.1294937833088233</v>
+      </c>
+      <c r="D75">
+        <v>0.05073366451497615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01032481015665267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02088889326708734</v>
+      </c>
+      <c r="C76">
+        <v>-0.1404812232233679</v>
+      </c>
+      <c r="D76">
+        <v>0.07844706030737174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008527917340289183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02147634918594236</v>
+      </c>
+      <c r="C77">
+        <v>-0.1149242129905315</v>
+      </c>
+      <c r="D77">
+        <v>0.1224551850361246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.000659039094889139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01451386945857721</v>
+      </c>
+      <c r="C78">
+        <v>-0.08914023178707309</v>
+      </c>
+      <c r="D78">
+        <v>0.06848500161371794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02629710248183927</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03616310917502388</v>
+      </c>
+      <c r="C79">
+        <v>-0.1496139925932465</v>
+      </c>
+      <c r="D79">
+        <v>0.04913596596810731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003210198387172859</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01086115398744509</v>
+      </c>
+      <c r="C80">
+        <v>-0.04388571843515998</v>
+      </c>
+      <c r="D80">
+        <v>0.02903811208692571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001014391876356882</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01425566575438963</v>
+      </c>
+      <c r="C81">
+        <v>-0.1166430536106736</v>
+      </c>
+      <c r="D81">
+        <v>0.06931354496296899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00618718981112417</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01806009999492895</v>
+      </c>
+      <c r="C82">
+        <v>-0.1353002723962966</v>
+      </c>
+      <c r="D82">
+        <v>0.05541927322127335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008430473452357673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009634643700804933</v>
+      </c>
+      <c r="C83">
+        <v>-0.04966113343640698</v>
+      </c>
+      <c r="D83">
+        <v>0.05140182292856814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01353239891901051</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01236255855374492</v>
+      </c>
+      <c r="C84">
+        <v>-0.03106090563957802</v>
+      </c>
+      <c r="D84">
+        <v>0.003947654565468124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01628400933488763</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0284142863771455</v>
+      </c>
+      <c r="C85">
+        <v>-0.1267296162849177</v>
+      </c>
+      <c r="D85">
+        <v>0.06368864081246445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003791383728861259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004931769355143741</v>
+      </c>
+      <c r="C86">
+        <v>-0.04762582469099876</v>
+      </c>
+      <c r="D86">
+        <v>0.02306955049719405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008190499872897911</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009462284739427713</v>
+      </c>
+      <c r="C87">
+        <v>-0.1197215488651125</v>
+      </c>
+      <c r="D87">
+        <v>0.0866051804831674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01485922773773513</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003127292689271325</v>
+      </c>
+      <c r="C88">
+        <v>-0.07328599489918265</v>
+      </c>
+      <c r="D88">
+        <v>0.01811623489002124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01575120711863474</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001509813453602528</v>
+      </c>
+      <c r="C89">
+        <v>-0.1794191513120251</v>
+      </c>
+      <c r="D89">
+        <v>-0.3244584403032516</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002548947600187215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007968576884331762</v>
+      </c>
+      <c r="C90">
+        <v>-0.1611760991676321</v>
+      </c>
+      <c r="D90">
+        <v>-0.3134133420259014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.000670412832661333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009779886299652213</v>
+      </c>
+      <c r="C91">
+        <v>-0.1019884797492314</v>
+      </c>
+      <c r="D91">
+        <v>0.02422941367997541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0188208268609281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001570900085783801</v>
+      </c>
+      <c r="C92">
+        <v>-0.1687256251553077</v>
+      </c>
+      <c r="D92">
+        <v>-0.3131347734750324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002141713996949206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005480582212335898</v>
+      </c>
+      <c r="C93">
+        <v>-0.1433928671374088</v>
+      </c>
+      <c r="D93">
+        <v>-0.3058882320282543</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0008339773865643599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02174257448658525</v>
+      </c>
+      <c r="C94">
+        <v>-0.1553291970263746</v>
+      </c>
+      <c r="D94">
+        <v>0.04120605300221859</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007100074982323829</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01645672820803755</v>
+      </c>
+      <c r="C95">
+        <v>-0.1196691852211668</v>
+      </c>
+      <c r="D95">
+        <v>0.06779465978879992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004644547006465207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03226957042381193</v>
+      </c>
+      <c r="C97">
+        <v>-0.1633769482228291</v>
+      </c>
+      <c r="D97">
+        <v>0.05692103644047694</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01021784619190924</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03574886444718033</v>
+      </c>
+      <c r="C98">
+        <v>-0.2567938120466823</v>
+      </c>
+      <c r="D98">
+        <v>0.05118556926490714</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9791666054897451</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827266189755071</v>
+      </c>
+      <c r="C99">
+        <v>0.1054502144049205</v>
+      </c>
+      <c r="D99">
+        <v>-0.03755733724345084</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001662003709506663</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003551478321289348</v>
+      </c>
+      <c r="C101">
+        <v>-0.05036832805884583</v>
+      </c>
+      <c r="D101">
+        <v>0.0215948391237764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
